--- a/Data/Workspaces/PFC_Xcel/workspaces.xlsx
+++ b/Data/Workspaces/PFC_Xcel/workspaces.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Functional_Connectivity/Data/Workspaces/PFC_Xcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/PFC_MetaConnectome/Data/Workspaces/PFC_Xcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53561C39-6B80-5542-A1C9-36F99D5EBFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="17520" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="460" windowWidth="17520" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Whole_PFC" sheetId="1" r:id="rId1"/>
@@ -1809,7 +1810,7 @@
   <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1825,7 @@
     <col min="8" max="8" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1837,8 +1838,11 @@
       <c r="D1" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1851,8 +1855,11 @@
       <c r="D2" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1865,8 +1872,11 @@
       <c r="D3" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1889,11 @@
       <c r="D4" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1893,8 +1906,11 @@
       <c r="D5" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,8 +1923,11 @@
       <c r="D6" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1921,8 +1940,11 @@
       <c r="D7" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1935,8 +1957,11 @@
       <c r="D8" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1949,8 +1974,11 @@
       <c r="D9" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1963,8 +1991,11 @@
       <c r="D10" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1977,8 +2008,11 @@
       <c r="D11" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1991,8 +2025,11 @@
       <c r="D12" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2005,8 +2042,11 @@
       <c r="D13" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2019,8 +2059,11 @@
       <c r="D14" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2033,8 +2076,11 @@
       <c r="D15" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2047,8 +2093,11 @@
       <c r="D16" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
@@ -2061,8 +2110,11 @@
       <c r="D17" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
@@ -2075,8 +2127,11 @@
       <c r="D18" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2089,8 +2144,11 @@
       <c r="D19" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
@@ -2103,8 +2161,11 @@
       <c r="D20" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2117,8 +2178,11 @@
       <c r="D21" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="D22" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
@@ -2145,8 +2212,11 @@
       <c r="D23" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
@@ -2159,8 +2229,11 @@
       <c r="D24" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
@@ -2173,8 +2246,11 @@
       <c r="D25" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
@@ -2187,8 +2263,11 @@
       <c r="D26" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
@@ -2201,8 +2280,11 @@
       <c r="D27" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
@@ -2215,8 +2297,11 @@
       <c r="D28" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
@@ -2229,8 +2314,11 @@
       <c r="D29" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
@@ -2243,8 +2331,11 @@
       <c r="D30" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
@@ -2257,8 +2348,11 @@
       <c r="D31" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
@@ -2271,8 +2365,11 @@
       <c r="D32" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
@@ -2285,8 +2382,11 @@
       <c r="D33" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
@@ -2299,8 +2399,11 @@
       <c r="D34" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
@@ -2313,8 +2416,11 @@
       <c r="D35" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
@@ -2327,8 +2433,11 @@
       <c r="D36" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2341,8 +2450,11 @@
       <c r="D37" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2355,8 +2467,11 @@
       <c r="D38" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2369,8 +2484,11 @@
       <c r="D39" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2383,8 +2501,11 @@
       <c r="D40" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2397,8 +2518,11 @@
       <c r="D41" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2411,8 +2535,11 @@
       <c r="D42" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2425,8 +2552,11 @@
       <c r="D43" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2439,8 +2569,11 @@
       <c r="D44" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2453,8 +2586,11 @@
       <c r="D45" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2467,8 +2603,11 @@
       <c r="D46" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2481,8 +2620,11 @@
       <c r="D47" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2495,8 +2637,11 @@
       <c r="D48" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2509,8 +2654,11 @@
       <c r="D49" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2523,8 +2671,11 @@
       <c r="D50" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2537,8 +2688,11 @@
       <c r="D51" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2551,8 +2705,11 @@
       <c r="D52" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2565,8 +2722,11 @@
       <c r="D53" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2579,8 +2739,11 @@
       <c r="D54" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2593,8 +2756,11 @@
       <c r="D55" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2607,8 +2773,11 @@
       <c r="D56" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2790,11 @@
       <c r="D57" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2635,8 +2807,11 @@
       <c r="D58" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2649,8 +2824,11 @@
       <c r="D59" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2663,8 +2841,11 @@
       <c r="D60" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -2677,8 +2858,11 @@
       <c r="D61" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2691,8 +2875,11 @@
       <c r="D62" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2705,8 +2892,11 @@
       <c r="D63" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2719,8 +2909,11 @@
       <c r="D64" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2733,8 +2926,11 @@
       <c r="D65" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2747,8 +2943,11 @@
       <c r="D66" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2761,8 +2960,11 @@
       <c r="D67" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2775,8 +2977,11 @@
       <c r="D68" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2789,8 +2994,11 @@
       <c r="D69" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2803,8 +3011,11 @@
       <c r="D70" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2817,8 +3028,11 @@
       <c r="D71" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3045,11 @@
       <c r="D72" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2845,8 +3062,11 @@
       <c r="D73" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
@@ -2859,8 +3079,11 @@
       <c r="D74" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2873,8 +3096,11 @@
       <c r="D75" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -2887,8 +3113,11 @@
       <c r="D76" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -2901,8 +3130,11 @@
       <c r="D77" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -2915,8 +3147,11 @@
       <c r="D78" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -2929,8 +3164,11 @@
       <c r="D79" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -2943,8 +3181,11 @@
       <c r="D80" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -2957,8 +3198,11 @@
       <c r="D81" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -2971,8 +3215,11 @@
       <c r="D82" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -2985,8 +3232,11 @@
       <c r="D83" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -2999,8 +3249,11 @@
       <c r="D84" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -3013,8 +3266,11 @@
       <c r="D85" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
@@ -3027,8 +3283,11 @@
       <c r="D86" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -3041,8 +3300,11 @@
       <c r="D87" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -3055,8 +3317,11 @@
       <c r="D88" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -3069,8 +3334,11 @@
       <c r="D89" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -3083,8 +3351,11 @@
       <c r="D90" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -3097,8 +3368,11 @@
       <c r="D91" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -3111,8 +3385,11 @@
       <c r="D92" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -3125,8 +3402,11 @@
       <c r="D93" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
@@ -3139,8 +3419,11 @@
       <c r="D94" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
@@ -3153,8 +3436,11 @@
       <c r="D95" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -3167,8 +3453,11 @@
       <c r="D96" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -3181,8 +3470,11 @@
       <c r="D97" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
@@ -3195,8 +3487,11 @@
       <c r="D98" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
@@ -3209,8 +3504,11 @@
       <c r="D99" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
@@ -3223,8 +3521,11 @@
       <c r="D100" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
@@ -3237,8 +3538,11 @@
       <c r="D101" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
@@ -3251,8 +3555,11 @@
       <c r="D102" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
@@ -3265,8 +3572,11 @@
       <c r="D103" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
@@ -3279,8 +3589,11 @@
       <c r="D104" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
@@ -3293,8 +3606,11 @@
       <c r="D105" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -3307,8 +3623,11 @@
       <c r="D106" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
@@ -3321,8 +3640,11 @@
       <c r="D107" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -3335,8 +3657,11 @@
       <c r="D108" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -3349,8 +3674,11 @@
       <c r="D109" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
@@ -3363,8 +3691,11 @@
       <c r="D110" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -3377,8 +3708,11 @@
       <c r="D111" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -3391,8 +3725,11 @@
       <c r="D112" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
@@ -3405,8 +3742,11 @@
       <c r="D113" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
@@ -3419,8 +3759,11 @@
       <c r="D114" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
@@ -3433,8 +3776,11 @@
       <c r="D115" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
@@ -3447,8 +3793,11 @@
       <c r="D116" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3461,8 +3810,11 @@
       <c r="D117" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
@@ -3475,8 +3827,11 @@
       <c r="D118" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -3489,8 +3844,11 @@
       <c r="D119" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
@@ -3503,8 +3861,11 @@
       <c r="D120" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -3517,8 +3878,11 @@
       <c r="D121" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
@@ -3531,8 +3895,11 @@
       <c r="D122" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
@@ -3545,8 +3912,11 @@
       <c r="D123" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
@@ -3559,8 +3929,11 @@
       <c r="D124" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
@@ -3573,8 +3946,11 @@
       <c r="D125" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
@@ -3587,8 +3963,11 @@
       <c r="D126" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
@@ -3601,8 +3980,11 @@
       <c r="D127" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
@@ -3615,8 +3997,11 @@
       <c r="D128" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
@@ -3629,8 +4014,11 @@
       <c r="D129" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
@@ -3643,8 +4031,11 @@
       <c r="D130" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
@@ -3657,8 +4048,11 @@
       <c r="D131" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
@@ -3671,8 +4065,11 @@
       <c r="D132" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
@@ -3685,8 +4082,11 @@
       <c r="D133" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
@@ -3699,8 +4099,11 @@
       <c r="D134" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -3713,8 +4116,11 @@
       <c r="D135" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
@@ -3727,8 +4133,11 @@
       <c r="D136" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
@@ -3741,8 +4150,11 @@
       <c r="D137" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
@@ -3755,8 +4167,11 @@
       <c r="D138" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
@@ -3769,8 +4184,11 @@
       <c r="D139" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
@@ -3783,8 +4201,11 @@
       <c r="D140" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
@@ -3797,8 +4218,11 @@
       <c r="D141" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
@@ -3811,8 +4235,11 @@
       <c r="D142" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
@@ -3825,8 +4252,11 @@
       <c r="D143" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -3839,8 +4269,11 @@
       <c r="D144" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
@@ -3853,8 +4286,11 @@
       <c r="D145" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
@@ -3867,8 +4303,11 @@
       <c r="D146" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
@@ -3881,8 +4320,11 @@
       <c r="D147" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
@@ -3895,8 +4337,11 @@
       <c r="D148" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
@@ -3909,8 +4354,11 @@
       <c r="D149" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
@@ -3923,8 +4371,11 @@
       <c r="D150" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
@@ -3937,8 +4388,11 @@
       <c r="D151" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
@@ -3951,8 +4405,11 @@
       <c r="D152" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
@@ -3965,8 +4422,11 @@
       <c r="D153" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
@@ -3979,8 +4439,11 @@
       <c r="D154" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
@@ -3993,8 +4456,11 @@
       <c r="D155" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
@@ -4007,8 +4473,11 @@
       <c r="D156" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
@@ -4021,8 +4490,11 @@
       <c r="D157" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
@@ -4035,8 +4507,11 @@
       <c r="D158" s="13" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
@@ -4049,8 +4524,11 @@
       <c r="D159" s="13" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
@@ -4063,8 +4541,11 @@
       <c r="D160" s="13" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
@@ -4077,8 +4558,11 @@
       <c r="D161" s="13" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
@@ -4091,8 +4575,11 @@
       <c r="D162" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
@@ -4105,8 +4592,11 @@
       <c r="D163" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
@@ -4119,8 +4609,11 @@
       <c r="D164" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
@@ -4133,8 +4626,11 @@
       <c r="D165" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
@@ -4147,8 +4643,11 @@
       <c r="D166" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
@@ -4161,8 +4660,11 @@
       <c r="D167" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
@@ -4175,8 +4677,11 @@
       <c r="D168" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
@@ -4189,8 +4694,11 @@
       <c r="D169" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
@@ -4203,8 +4711,11 @@
       <c r="D170" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
@@ -4217,8 +4728,11 @@
       <c r="D171" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
@@ -4231,8 +4745,11 @@
       <c r="D172" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
@@ -4245,8 +4762,11 @@
       <c r="D173" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
@@ -4259,8 +4779,11 @@
       <c r="D174" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
@@ -4273,8 +4796,11 @@
       <c r="D175" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
@@ -4287,8 +4813,11 @@
       <c r="D176" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
@@ -4301,8 +4830,11 @@
       <c r="D177" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
@@ -4315,8 +4847,11 @@
       <c r="D178" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
@@ -4329,8 +4864,11 @@
       <c r="D179" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
@@ -4343,8 +4881,11 @@
       <c r="D180" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
@@ -4357,8 +4898,11 @@
       <c r="D181" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
@@ -4371,8 +4915,11 @@
       <c r="D182" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
@@ -4385,8 +4932,11 @@
       <c r="D183" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
@@ -4399,8 +4949,11 @@
       <c r="D184" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
@@ -4413,8 +4966,11 @@
       <c r="D185" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
@@ -4427,8 +4983,11 @@
       <c r="D186" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
@@ -4441,8 +5000,11 @@
       <c r="D187" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
@@ -4455,8 +5017,11 @@
       <c r="D188" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
@@ -4469,8 +5034,11 @@
       <c r="D189" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
@@ -4483,8 +5051,11 @@
       <c r="D190" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
@@ -4497,8 +5068,11 @@
       <c r="D191" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
@@ -4511,8 +5085,11 @@
       <c r="D192" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
@@ -4525,8 +5102,11 @@
       <c r="D193" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
@@ -4539,8 +5119,11 @@
       <c r="D194" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
@@ -4553,8 +5136,11 @@
       <c r="D195" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
@@ -4567,8 +5153,11 @@
       <c r="D196" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
@@ -4581,8 +5170,11 @@
       <c r="D197" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
@@ -4595,8 +5187,11 @@
       <c r="D198" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
@@ -4609,8 +5204,11 @@
       <c r="D199" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
@@ -4623,8 +5221,11 @@
       <c r="D200" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
@@ -4637,8 +5238,11 @@
       <c r="D201" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
@@ -4651,8 +5255,11 @@
       <c r="D202" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
@@ -4665,8 +5272,11 @@
       <c r="D203" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
@@ -4679,8 +5289,11 @@
       <c r="D204" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
@@ -4693,8 +5306,11 @@
       <c r="D205" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
@@ -4707,8 +5323,11 @@
       <c r="D206" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
@@ -4721,8 +5340,11 @@
       <c r="D207" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
@@ -4735,8 +5357,11 @@
       <c r="D208" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
@@ -4749,8 +5374,11 @@
       <c r="D209" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
@@ -4763,8 +5391,11 @@
       <c r="D210" s="13" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
@@ -4777,8 +5408,11 @@
       <c r="D211" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
@@ -4791,8 +5425,11 @@
       <c r="D212" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
@@ -4805,8 +5442,11 @@
       <c r="D213" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
@@ -4819,8 +5459,11 @@
       <c r="D214" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
@@ -4833,8 +5476,11 @@
       <c r="D215" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
@@ -4847,8 +5493,11 @@
       <c r="D216" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
@@ -4861,8 +5510,11 @@
       <c r="D217" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
@@ -4875,8 +5527,11 @@
       <c r="D218" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
@@ -4889,8 +5544,11 @@
       <c r="D219" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
@@ -4903,8 +5561,11 @@
       <c r="D220" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
@@ -4917,8 +5578,11 @@
       <c r="D221" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>429</v>
       </c>
@@ -4931,8 +5595,11 @@
       <c r="D222" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>427</v>
       </c>
@@ -4945,10 +5612,13 @@
       <c r="D223" s="8" t="s">
         <v>448</v>
       </c>
+      <c r="E223" s="8">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D223">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E223">
+    <sortCondition ref="A1:A223"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
